--- a/통계.xlsx
+++ b/통계.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12370"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="베르누이 분포" sheetId="1" r:id="rId1"/>
+    <sheet name="0719" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t>A</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +36,31 @@
   </si>
   <si>
     <t>p</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>x5</t>
+  </si>
+  <si>
+    <t>X_Bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -367,7 +393,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D1:R100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
@@ -382,31 +408,31 @@
       </c>
       <c r="M1">
         <f ca="1">RAND()</f>
-        <v>0.44537336682120954</v>
+        <v>0.80842305681040461</v>
       </c>
       <c r="O1">
         <f ca="1">IF(M1&lt;$J$1,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R1">
         <f ca="1">SUM(O1:O100)/100</f>
-        <v>0.5</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="2" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M2">
         <f ca="1">RAND()</f>
-        <v>9.9476811693337885E-2</v>
+        <v>0.68256523454419915</v>
       </c>
       <c r="O2">
         <f t="shared" ref="O2:O65" ca="1" si="0">IF(M2&lt;$J$1,0,1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M3">
         <f t="shared" ref="M3:M66" ca="1" si="1">RAND()</f>
-        <v>0.19061882381158379</v>
+        <v>0.19559407708783194</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
@@ -416,18 +442,18 @@
     <row r="4" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D4">
         <f ca="1">RAND()</f>
-        <v>0.80852637343143063</v>
+        <v>0.40885886372681879</v>
       </c>
       <c r="E4" t="s">
         <v>0</v>
       </c>
       <c r="F4" t="str">
         <f ca="1">IF(D4&lt;$J$1,"H","T")</f>
-        <v>T</v>
+        <v>H</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95700182446346616</v>
+        <v>0.98680557677867076</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
@@ -437,7 +463,7 @@
     <row r="5" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D5">
         <f ca="1">RAND()</f>
-        <v>0.95689608344120014</v>
+        <v>0.78373895670429661</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
@@ -448,7 +474,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87189632743082435</v>
+        <v>0.90344745002705618</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
@@ -458,27 +484,27 @@
     <row r="6" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88818408277603267</v>
+        <v>0.1244533574885246</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34409426113657793</v>
+        <v>0.85268165449883038</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="4:18" x14ac:dyDescent="0.45">
       <c r="D8">
         <f ca="1">RAND()</f>
-        <v>0.23039601855429637</v>
+        <v>0.46521705291589233</v>
       </c>
       <c r="E8" t="s">
         <v>0</v>
@@ -489,11 +515,11 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="1"/>
-        <v>4.8258875886835417E-2</v>
+        <v>0.86288251249429082</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="4:18" x14ac:dyDescent="0.45">
@@ -506,7 +532,7 @@
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42370552811687656</v>
+        <v>0.14319778477689049</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
@@ -516,17 +542,17 @@
     <row r="10" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.470091214777975</v>
+        <v>0.72573251812061645</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98341407161638161</v>
+        <v>0.78240687417929733</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
@@ -536,7 +562,7 @@
     <row r="12" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73665903163191737</v>
+        <v>0.92483988056534971</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
@@ -546,17 +572,17 @@
     <row r="13" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.85801538732866678</v>
+        <v>0.17123802367695873</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.52991080447493033</v>
+        <v>0.5760801293643848</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="0"/>
@@ -566,7 +592,7 @@
     <row r="15" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M15">
         <f t="shared" ca="1" si="1"/>
-        <v>9.685911983392137E-2</v>
+        <v>0.47858547105061999</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="0"/>
@@ -576,7 +602,7 @@
     <row r="16" spans="4:18" x14ac:dyDescent="0.45">
       <c r="M16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73139688322354512</v>
+        <v>0.70471480022909749</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="0"/>
@@ -586,7 +612,7 @@
     <row r="17" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3087404578349181</v>
+        <v>0.18318532934999587</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="0"/>
@@ -596,37 +622,37 @@
     <row r="18" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34991448900760647</v>
+        <v>0.81063862665200215</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34558900858208252</v>
+        <v>0.5945612074360066</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69972821833593468</v>
+        <v>0.44049960530918786</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M21">
         <f t="shared" ca="1" si="1"/>
-        <v>0.79056433108398949</v>
+        <v>0.8615271407082391</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="0"/>
@@ -636,7 +662,7 @@
     <row r="22" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M22">
         <f t="shared" ca="1" si="1"/>
-        <v>0.46478469085522567</v>
+        <v>0.34089455305158134</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="0"/>
@@ -646,7 +672,7 @@
     <row r="23" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M23">
         <f t="shared" ca="1" si="1"/>
-        <v>0.15965450715614737</v>
+        <v>3.1989788247752671E-3</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="0"/>
@@ -656,17 +682,17 @@
     <row r="24" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M24">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91582782532169704</v>
+        <v>7.3688270787417354E-2</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M25">
         <f t="shared" ca="1" si="1"/>
-        <v>0.42115467477781909</v>
+        <v>0.17715727585064622</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="0"/>
@@ -676,7 +702,7 @@
     <row r="26" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M26">
         <f t="shared" ca="1" si="1"/>
-        <v>6.6333087443727567E-2</v>
+        <v>0.30283050904851194</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="0"/>
@@ -686,7 +712,7 @@
     <row r="27" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M27">
         <f t="shared" ca="1" si="1"/>
-        <v>0.38744857572555447</v>
+        <v>0.28782153536468413</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="0"/>
@@ -696,17 +722,17 @@
     <row r="28" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M28">
         <f t="shared" ca="1" si="1"/>
-        <v>3.3417670612058914E-2</v>
+        <v>0.56157903457062497</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M29">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66188411575198669</v>
+        <v>0.7194188534707</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="0"/>
@@ -716,7 +742,7 @@
     <row r="30" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M30">
         <f t="shared" ca="1" si="1"/>
-        <v>0.58003383854480228</v>
+        <v>0.89026432641722697</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="0"/>
@@ -726,17 +752,17 @@
     <row r="31" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M31">
         <f t="shared" ca="1" si="1"/>
-        <v>8.964749782207404E-3</v>
+        <v>0.96326453988059291</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M32">
         <f t="shared" ca="1" si="1"/>
-        <v>6.3287038021911712E-2</v>
+        <v>0.4251562630320892</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="0"/>
@@ -746,7 +772,7 @@
     <row r="33" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M33">
         <f t="shared" ca="1" si="1"/>
-        <v>0.510887694964269</v>
+        <v>0.78377568630424677</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="0"/>
@@ -756,17 +782,17 @@
     <row r="34" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M34">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61470377771872686</v>
+        <v>0.40519304000368572</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M35">
         <f t="shared" ca="1" si="1"/>
-        <v>0.28770178878320729</v>
+        <v>0.22068025382399614</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="0"/>
@@ -776,7 +802,7 @@
     <row r="36" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M36">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89109059752772579</v>
+        <v>0.56273762299582397</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="0"/>
@@ -786,17 +812,17 @@
     <row r="37" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M37">
         <f t="shared" ca="1" si="1"/>
-        <v>0.68032693820066192</v>
+        <v>0.45536955128067491</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M38">
         <f t="shared" ca="1" si="1"/>
-        <v>0.93529367209471415</v>
+        <v>0.54671053010558324</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="0"/>
@@ -806,7 +832,7 @@
     <row r="39" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M39">
         <f t="shared" ca="1" si="1"/>
-        <v>0.49763580470025737</v>
+        <v>0.4177778589848069</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="0"/>
@@ -816,37 +842,37 @@
     <row r="40" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M40">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96605718348386149</v>
+        <v>0.46006955228404345</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M41">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27917240244911279</v>
+        <v>0.68221848613023395</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M42">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13535474603742137</v>
+        <v>0.88653077038937389</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M43">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36703265741645053</v>
+        <v>0.4013601909850304</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="0"/>
@@ -856,7 +882,7 @@
     <row r="44" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M44">
         <f t="shared" ca="1" si="1"/>
-        <v>0.365090728419046</v>
+        <v>0.1490988322733281</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="0"/>
@@ -866,7 +892,7 @@
     <row r="45" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M45">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34647228118896101</v>
+        <v>2.2773605090911087E-3</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="0"/>
@@ -876,17 +902,17 @@
     <row r="46" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M46">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27816889636345843</v>
+        <v>0.77655363476716843</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M47">
         <f t="shared" ca="1" si="1"/>
-        <v>0.82715302844136784</v>
+        <v>0.98006122132277762</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="0"/>
@@ -896,67 +922,67 @@
     <row r="48" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M48">
         <f t="shared" ca="1" si="1"/>
-        <v>0.51951530143897662</v>
+        <v>0.20075755524023553</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M49">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11955778109804638</v>
+        <v>0.93775787322375126</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M50">
         <f t="shared" ca="1" si="1"/>
-        <v>0.80723305341850105</v>
+        <v>3.5479037731916852E-2</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M51">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8508321100996753</v>
+        <v>2.2966409902736462E-2</v>
       </c>
       <c r="O51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M52">
         <f t="shared" ca="1" si="1"/>
-        <v>0.91195318136797265</v>
+        <v>0.33291279188629364</v>
       </c>
       <c r="O52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M53">
         <f t="shared" ca="1" si="1"/>
-        <v>0.90786385486196253</v>
+        <v>0.13938885771839749</v>
       </c>
       <c r="O53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M54">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71421931438784625</v>
+        <v>0.8408395497598361</v>
       </c>
       <c r="O54">
         <f t="shared" ca="1" si="0"/>
@@ -966,17 +992,17 @@
     <row r="55" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M55">
         <f t="shared" ca="1" si="1"/>
-        <v>0.2152694990478049</v>
+        <v>0.67902751066231859</v>
       </c>
       <c r="O55">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M56">
         <f t="shared" ca="1" si="1"/>
-        <v>8.5760824361218568E-2</v>
+        <v>6.9953696939869969E-2</v>
       </c>
       <c r="O56">
         <f t="shared" ca="1" si="0"/>
@@ -986,27 +1012,27 @@
     <row r="57" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M57">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50024591977915567</v>
+        <v>0.23350704120071253</v>
       </c>
       <c r="O57">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M58">
         <f t="shared" ca="1" si="1"/>
-        <v>0.30873381307308578</v>
+        <v>0.53994676393788776</v>
       </c>
       <c r="O58">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M59">
         <f t="shared" ca="1" si="1"/>
-        <v>0.76995448714030046</v>
+        <v>0.67948564401830946</v>
       </c>
       <c r="O59">
         <f t="shared" ca="1" si="0"/>
@@ -1016,7 +1042,7 @@
     <row r="60" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M60">
         <f t="shared" ca="1" si="1"/>
-        <v>0.18281721646013538</v>
+        <v>0.21731201195341276</v>
       </c>
       <c r="O60">
         <f t="shared" ca="1" si="0"/>
@@ -1026,7 +1052,7 @@
     <row r="61" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M61">
         <f t="shared" ca="1" si="1"/>
-        <v>0.25465092186847704</v>
+        <v>0.41334283700788121</v>
       </c>
       <c r="O61">
         <f t="shared" ca="1" si="0"/>
@@ -1036,7 +1062,7 @@
     <row r="62" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M62">
         <f t="shared" ca="1" si="1"/>
-        <v>0.78345932366193149</v>
+        <v>0.69448420736195693</v>
       </c>
       <c r="O62">
         <f t="shared" ca="1" si="0"/>
@@ -1046,7 +1072,7 @@
     <row r="63" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M63">
         <f t="shared" ca="1" si="1"/>
-        <v>0.87126842696078144</v>
+        <v>0.93725508851865236</v>
       </c>
       <c r="O63">
         <f t="shared" ca="1" si="0"/>
@@ -1056,7 +1082,7 @@
     <row r="64" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M64">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7375818202491331</v>
+        <v>0.92739858981902623</v>
       </c>
       <c r="O64">
         <f t="shared" ca="1" si="0"/>
@@ -1066,27 +1092,27 @@
     <row r="65" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M65">
         <f t="shared" ca="1" si="1"/>
-        <v>0.27008849649083011</v>
+        <v>0.85929323619334375</v>
       </c>
       <c r="O65">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M66">
         <f t="shared" ca="1" si="1"/>
-        <v>0.95969578404838396</v>
+        <v>0.19134340791522142</v>
       </c>
       <c r="O66">
         <f t="shared" ref="O66:O100" ca="1" si="2">IF(M66&lt;$J$1,0,1)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M67">
         <f t="shared" ref="M67:M100" ca="1" si="3">RAND()</f>
-        <v>0.93229510944135219</v>
+        <v>0.55965758987936465</v>
       </c>
       <c r="O67">
         <f t="shared" ca="1" si="2"/>
@@ -1096,7 +1122,7 @@
     <row r="68" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M68">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1656364524032129</v>
+        <v>0.43617367908622684</v>
       </c>
       <c r="O68">
         <f t="shared" ca="1" si="2"/>
@@ -1106,17 +1132,17 @@
     <row r="69" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M69">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47155456668913409</v>
+        <v>0.89136658808265001</v>
       </c>
       <c r="O69">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M70">
         <f t="shared" ca="1" si="3"/>
-        <v>0.99225299108044607</v>
+        <v>0.72337035063728872</v>
       </c>
       <c r="O70">
         <f t="shared" ca="1" si="2"/>
@@ -1126,17 +1152,17 @@
     <row r="71" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M71">
         <f t="shared" ca="1" si="3"/>
-        <v>0.60601947624082653</v>
+        <v>0.1299472621101273</v>
       </c>
       <c r="O71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M72">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98058253289352149</v>
+        <v>0.78108091793256618</v>
       </c>
       <c r="O72">
         <f t="shared" ca="1" si="2"/>
@@ -1146,7 +1172,7 @@
     <row r="73" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M73">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88901329708400534</v>
+        <v>0.50642146499242369</v>
       </c>
       <c r="O73">
         <f t="shared" ca="1" si="2"/>
@@ -1156,7 +1182,7 @@
     <row r="74" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M74">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42872201385113184</v>
+        <v>0.30066134862241678</v>
       </c>
       <c r="O74">
         <f t="shared" ca="1" si="2"/>
@@ -1166,7 +1192,7 @@
     <row r="75" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M75">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92918889918674463</v>
+        <v>0.82039601738519086</v>
       </c>
       <c r="O75">
         <f t="shared" ca="1" si="2"/>
@@ -1176,7 +1202,7 @@
     <row r="76" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M76">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25141616358879071</v>
+        <v>0.48222258134091456</v>
       </c>
       <c r="O76">
         <f t="shared" ca="1" si="2"/>
@@ -1186,7 +1212,7 @@
     <row r="77" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M77">
         <f t="shared" ca="1" si="3"/>
-        <v>0.36518413917555315</v>
+        <v>8.7373071275001379E-2</v>
       </c>
       <c r="O77">
         <f t="shared" ca="1" si="2"/>
@@ -1196,7 +1222,7 @@
     <row r="78" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M78">
         <f t="shared" ca="1" si="3"/>
-        <v>2.2409341639815672E-2</v>
+        <v>0.44385760120386708</v>
       </c>
       <c r="O78">
         <f t="shared" ca="1" si="2"/>
@@ -1206,37 +1232,37 @@
     <row r="79" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M79">
         <f t="shared" ca="1" si="3"/>
-        <v>6.9748850284057085E-4</v>
+        <v>0.62735634437448928</v>
       </c>
       <c r="O79">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M80">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53727809073822952</v>
+        <v>0.48026807332510368</v>
       </c>
       <c r="O80">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M81">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74326934845550618</v>
+        <v>0.16630730062099575</v>
       </c>
       <c r="O81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M82">
         <f t="shared" ca="1" si="3"/>
-        <v>6.8011836643385393E-2</v>
+        <v>0.41004678520357918</v>
       </c>
       <c r="O82">
         <f t="shared" ca="1" si="2"/>
@@ -1246,7 +1272,7 @@
     <row r="83" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M83">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51952352622849574</v>
+        <v>0.59002342819893039</v>
       </c>
       <c r="O83">
         <f t="shared" ca="1" si="2"/>
@@ -1256,7 +1282,7 @@
     <row r="84" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M84">
         <f t="shared" ca="1" si="3"/>
-        <v>0.67801644533375771</v>
+        <v>0.94696529439137433</v>
       </c>
       <c r="O84">
         <f t="shared" ca="1" si="2"/>
@@ -1266,7 +1292,7 @@
     <row r="85" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M85">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30408883880613091</v>
+        <v>4.1034790269359855E-2</v>
       </c>
       <c r="O85">
         <f t="shared" ca="1" si="2"/>
@@ -1276,17 +1302,17 @@
     <row r="86" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M86">
         <f t="shared" ca="1" si="3"/>
-        <v>0.76136577915526227</v>
+        <v>2.0225600506779018E-2</v>
       </c>
       <c r="O86">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M87">
         <f t="shared" ca="1" si="3"/>
-        <v>0.41895578963561153</v>
+        <v>0.34498940536843237</v>
       </c>
       <c r="O87">
         <f t="shared" ca="1" si="2"/>
@@ -1296,7 +1322,7 @@
     <row r="88" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M88">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11917308824043737</v>
+        <v>0.48826157090612787</v>
       </c>
       <c r="O88">
         <f t="shared" ca="1" si="2"/>
@@ -1306,7 +1332,7 @@
     <row r="89" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M89">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93206060778632804</v>
+        <v>0.66831395102559998</v>
       </c>
       <c r="O89">
         <f t="shared" ca="1" si="2"/>
@@ -1316,7 +1342,7 @@
     <row r="90" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M90">
         <f t="shared" ca="1" si="3"/>
-        <v>0.87352912415229889</v>
+        <v>0.65508400940816691</v>
       </c>
       <c r="O90">
         <f t="shared" ca="1" si="2"/>
@@ -1326,7 +1352,7 @@
     <row r="91" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M91">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48665718983450024</v>
+        <v>0.11466186882409057</v>
       </c>
       <c r="O91">
         <f t="shared" ca="1" si="2"/>
@@ -1336,17 +1362,17 @@
     <row r="92" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M92">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43783247727696628</v>
+        <v>0.62681995576718064</v>
       </c>
       <c r="O92">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M93">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49217332558236326</v>
+        <v>0.48336918012121854</v>
       </c>
       <c r="O93">
         <f t="shared" ca="1" si="2"/>
@@ -1356,7 +1382,7 @@
     <row r="94" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M94">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93069665928442491</v>
+        <v>0.84562286191254643</v>
       </c>
       <c r="O94">
         <f t="shared" ca="1" si="2"/>
@@ -1366,7 +1392,7 @@
     <row r="95" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M95">
         <f t="shared" ca="1" si="3"/>
-        <v>0.82506923495845597</v>
+        <v>0.50409519574598716</v>
       </c>
       <c r="O95">
         <f t="shared" ca="1" si="2"/>
@@ -1376,7 +1402,7 @@
     <row r="96" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M96">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71542875261134964</v>
+        <v>0.90653882433930355</v>
       </c>
       <c r="O96">
         <f t="shared" ca="1" si="2"/>
@@ -1386,17 +1412,17 @@
     <row r="97" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M97">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34643660624645933</v>
+        <v>0.7952502164550993</v>
       </c>
       <c r="O97">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M98">
         <f t="shared" ca="1" si="3"/>
-        <v>0.89539523035217039</v>
+        <v>0.7645031820548942</v>
       </c>
       <c r="O98">
         <f t="shared" ca="1" si="2"/>
@@ -1406,21 +1432,21 @@
     <row r="99" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M99">
         <f t="shared" ca="1" si="3"/>
-        <v>0.32360345710278438</v>
+        <v>0.74583365326941808</v>
       </c>
       <c r="O99">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="13:15" x14ac:dyDescent="0.45">
       <c r="M100">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71994802651891465</v>
+        <v>7.3167467515715789E-2</v>
       </c>
       <c r="O100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1428,4 +1454,81 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="E4:J10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetData>
+    <row r="4" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f ca="1">RAND()*30</f>
+        <v>11.047389364842687</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4">
+        <f ca="1">RAND()*30</f>
+        <v>12.221196720179133</v>
+      </c>
+    </row>
+    <row r="5" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="I5" t="s">
+        <v>5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J8" ca="1" si="0">RAND()*30</f>
+        <v>17.650670103766736</v>
+      </c>
+    </row>
+    <row r="6" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="I6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="0"/>
+        <v>28.803467302044339</v>
+      </c>
+    </row>
+    <row r="7" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="0"/>
+        <v>3.1960262548037424</v>
+      </c>
+    </row>
+    <row r="8" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="I8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="0"/>
+        <v>25.327500474950089</v>
+      </c>
+    </row>
+    <row r="10" spans="5:10" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10">
+        <f ca="1">SUM(J4:J8)/5</f>
+        <v>17.439772171148807</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>